--- a/RegressionTests/NeuralNetClassifier_Unit_Test_14/aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_14/aptrans_anon.Copy_of_Irish_Life_Transfer_letter.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="~Details" sheetId="3" r:id="rId2"/>
     <sheet name="sheet1" sheetId="4" r:id="rId3"/>
-    <sheet name="#Details" sheetId="5" r:id="rId4"/>
+    <sheet name="$Details" sheetId="5" r:id="rId4"/>
+    <sheet name="#Details" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="115">
   <si>
     <t>Scheme No: 605834</t>
   </si>
@@ -100,166 +101,101 @@
     <t>SURNAME</t>
   </si>
   <si>
-    <t>PAYROLL</t>
-  </si>
-  <si>
     <t>EE</t>
   </si>
   <si>
     <t>ER</t>
-  </si>
-  <si>
-    <t>Payroll number 745475 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Kilshanny</t>
-  </si>
-  <si>
-    <t>Glenageary</t>
-  </si>
-  <si>
-    <t>745475</t>
-  </si>
-  <si>
-    <t>Payroll number 778461 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Caherconlish</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>778461</t>
-  </si>
-  <si>
-    <t>Payroll number 745541 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Furbo</t>
-  </si>
-  <si>
-    <t>Frenchpark</t>
-  </si>
-  <si>
-    <t>745541</t>
-  </si>
-  <si>
-    <t>Payroll number 745479 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Ballinrobe</t>
-  </si>
-  <si>
-    <t>Midleton</t>
-  </si>
-  <si>
-    <t>745479</t>
-  </si>
-  <si>
-    <t>Payroll number 745519 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Coolrain</t>
-  </si>
-  <si>
-    <t>Riverchapel</t>
-  </si>
-  <si>
-    <t>745519</t>
-  </si>
-  <si>
-    <t>Payroll number 745473 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Omeath</t>
-  </si>
-  <si>
-    <t>Knightstown</t>
-  </si>
-  <si>
-    <t>745473</t>
-  </si>
-  <si>
-    <t>Payroll number 745472 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Ballyfin</t>
-  </si>
-  <si>
-    <t>Ballindooley</t>
-  </si>
-  <si>
-    <t>745472</t>
-  </si>
-  <si>
-    <t>Payroll number 745471 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Harold</t>
-  </si>
-  <si>
-    <t>Kilskeer</t>
-  </si>
-  <si>
-    <t>745471</t>
-  </si>
-  <si>
-    <t>Payroll number 745474 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
-    <t>Grange</t>
-  </si>
-  <si>
-    <t>Geesala</t>
-  </si>
-  <si>
-    <t>745474</t>
   </si>
   <si>
     <t>No Refno or PPS number or payroll number specified
 Member does not have open Paypoints</t>
   </si>
   <si>
+    <t>Kilshanny</t>
+  </si>
+  <si>
+    <t>Glenageary</t>
+  </si>
+  <si>
+    <t>Caherconlish</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Furbo</t>
+  </si>
+  <si>
+    <t>Frenchpark</t>
+  </si>
+  <si>
+    <t>Ballinrobe</t>
+  </si>
+  <si>
+    <t>Midleton</t>
+  </si>
+  <si>
+    <t>Coolrain</t>
+  </si>
+  <si>
+    <t>Riverchapel</t>
+  </si>
+  <si>
+    <t>Omeath</t>
+  </si>
+  <si>
+    <t>Knightstown</t>
+  </si>
+  <si>
+    <t>Ballyfin</t>
+  </si>
+  <si>
+    <t>Ballindooley</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Kilskeer</t>
+  </si>
+  <si>
+    <t>Grange</t>
+  </si>
+  <si>
+    <t>Geesala</t>
+  </si>
+  <si>
     <t>Rathnure</t>
   </si>
   <si>
     <t>Blanchardstown</t>
   </si>
   <si>
-    <t>Payroll number 745477 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Bansha</t>
   </si>
   <si>
     <t xml:space="preserve">O'Castleblakeney </t>
   </si>
   <si>
-    <t>745477</t>
-  </si>
-  <si>
-    <t>Payroll number 745539 does not exist for Scheme ID 605834
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Duhallow</t>
   </si>
   <si>
     <t>Buckode</t>
   </si>
   <si>
-    <t>745539</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>Mandatory columns not found</t>
+  </si>
+  <si>
+    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
   </si>
   <si>
     <t>NEG_ROWS</t>
@@ -619,20 +555,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,6 +758,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39998000860214233"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,14 +899,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -971,6 +911,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="63">
@@ -1045,7 +993,7 @@
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1072,15 +1020,20 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1997,7 +1950,7 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -2005,10 +1958,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="54.125"/>
+    <col min="1" max="1" width="47.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
@@ -2024,244 +1977,208 @@
       <c r="E1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="13" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="30">
+      <c r="A2" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30">
-      <c r="A2" s="14" t="s">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>375.0</v>
+      </c>
+      <c r="E2">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="E2">
-        <v>375.0</v>
-      </c>
-      <c r="F2">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30">
-      <c r="A3" s="14" t="s">
+      <c r="D3">
+        <v>100.0</v>
+      </c>
+      <c r="E3">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4">
+        <v>350.0</v>
+      </c>
+      <c r="E4">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="E3">
+      <c r="D5">
+        <v>50.0</v>
+      </c>
+      <c r="E5">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>140.0</v>
+      </c>
+      <c r="E6">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7">
+        <v>450.0</v>
+      </c>
+      <c r="E7">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
         <v>100.0</v>
       </c>
-      <c r="F3">
+      <c r="E8">
         <v>10.0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4">
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9">
         <v>350.0</v>
       </c>
-      <c r="F4">
+      <c r="E9">
         <v>35.0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5">
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10">
         <v>50.0</v>
       </c>
-      <c r="F5">
+      <c r="E10">
         <v>5.0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="E6">
-        <v>140.0</v>
-      </c>
-      <c r="F6">
-        <v>14.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="14" t="s">
+      <c r="D11">
+        <v>250.0</v>
+      </c>
+      <c r="E11">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D12">
+        <v>200.0</v>
+      </c>
+      <c r="E12">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="E7">
-        <v>450.0</v>
-      </c>
-      <c r="F7">
-        <v>45.0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
-      <c r="A8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8">
-        <v>100.0</v>
-      </c>
-      <c r="F8">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
-      <c r="A9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9">
-        <v>350.0</v>
-      </c>
-      <c r="F9">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30">
-      <c r="A10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10">
-        <v>50.0</v>
-      </c>
-      <c r="F10">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11">
-        <v>250.0</v>
-      </c>
-      <c r="F11">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12">
-        <v>200.0</v>
-      </c>
-      <c r="F12">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
+      <c r="D13">
+        <v>225.0</v>
       </c>
       <c r="E13">
-        <v>225.0</v>
-      </c>
-      <c r="F13">
         <v>22.5</v>
       </c>
     </row>
@@ -2272,6 +2189,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="16"/>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -2294,10 +2252,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -2310,312 +2268,312 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>89</v>
+      <c r="A12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
         <v>90</v>
       </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" t="s">
-        <v>108</v>
-      </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
         <v>93</v>
       </c>
-      <c r="E17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" t="s">
-        <v>111</v>
-      </c>
       <c r="I17" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="H19" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="F20" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="H20" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I21" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
